--- a/fees management LIS DB.xlsx
+++ b/fees management LIS DB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
   <si>
     <t xml:space="preserve">fees_mast</t>
   </si>
@@ -327,6 +327,9 @@
     <t xml:space="preserve">fees_instalment_mast</t>
   </si>
   <si>
+    <t xml:space="preserve">fees_head_trans</t>
+  </si>
+  <si>
     <t xml:space="preserve">st_date</t>
   </si>
   <si>
@@ -354,6 +357,9 @@
   </si>
   <si>
     <t xml:space="preserve">ed_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fees_head_id</t>
   </si>
   <si>
     <t xml:space="preserve">consession_apply_id</t>
@@ -617,11 +623,11 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.64"/>
@@ -1114,25 +1120,34 @@
       <c r="A35" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="G36" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>76</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>38</v>
@@ -1145,13 +1160,16 @@
       <c r="B38" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G38" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>17</v>
